--- a/מצגות/L12 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
+++ b/מצגות/L12 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-13-06\מצגות\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\מצגות\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -1819,6 +1819,27 @@
   </si>
   <si>
     <t>קבוצה</t>
+  </si>
+  <si>
+    <t>באזוב ילנה</t>
+  </si>
+  <si>
+    <t>פילו טטיאנה (טל)</t>
+  </si>
+  <si>
+    <t>תצוגת פרטי החיה</t>
+  </si>
+  <si>
+    <t>גורובוי אלכסנדר</t>
+  </si>
+  <si>
+    <t>אילייגוייב ולדיסלב</t>
+  </si>
+  <si>
+    <t>טאקלה וובנש</t>
+  </si>
+  <si>
+    <t>אלון שי</t>
   </si>
 </sst>
 </file>
@@ -2347,6 +2368,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,52 +2434,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2801,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2850,16 +2871,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="42">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26">
@@ -2879,10 +2900,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="26">
         <v>1.2</v>
       </c>
@@ -2900,10 +2921,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="26">
         <v>1.3</v>
       </c>
@@ -2921,14 +2942,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="53">
+      <c r="A7" s="40"/>
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="27">
@@ -2948,10 +2969,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -2969,14 +2990,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="45">
+      <c r="A9" s="40"/>
+      <c r="B9" s="37">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="37" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="28">
@@ -2996,10 +3017,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="28">
         <v>3.2</v>
       </c>
@@ -3017,10 +3038,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="28">
         <v>3.3</v>
       </c>
@@ -3038,14 +3059,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="55">
+      <c r="A12" s="40"/>
+      <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="47" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="5">
@@ -3065,10 +3086,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="5">
         <v>4.2</v>
       </c>
@@ -3086,10 +3107,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="5">
         <v>4.3</v>
       </c>
@@ -3107,11 +3128,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="58">
+      <c r="A15" s="41"/>
+      <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -3134,9 +3155,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29">
         <v>5.2</v>
@@ -3155,11 +3176,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="39">
+      <c r="A17" s="41"/>
+      <c r="B17" s="53">
         <v>6</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3182,9 +3203,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="31"/>
       <c r="E18" s="30">
         <v>6.2</v>
@@ -3203,13 +3224,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="54">
         <v>7</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="54" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="32" t="s">
@@ -3232,9 +3253,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32">
         <v>7.2</v>
@@ -3253,11 +3274,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="42">
+      <c r="A21" s="52"/>
+      <c r="B21" s="56">
         <v>8</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="56" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -3280,9 +3301,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34">
         <v>8.1999999999999993</v>
@@ -3301,9 +3322,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34">
         <v>8.3000000000000007</v>
@@ -3447,6 +3468,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -3462,13 +3490,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3501,15 +3522,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
@@ -3526,7 +3547,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3544,11 +3565,11 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3564,11 +3585,11 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -3582,11 +3603,11 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3639,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3636,7 +3657,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="C15" s="22">
         <v>1</v>
       </c>
@@ -3650,7 +3671,7 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="C16" s="22">
         <v>2</v>
       </c>
@@ -3664,7 +3685,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="C17" s="22">
         <v>3</v>
       </c>
@@ -3678,7 +3699,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="C18" s="22">
         <v>4</v>
       </c>
@@ -3692,7 +3713,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="C19" s="22">
         <v>5</v>
       </c>
@@ -3706,7 +3727,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="C20" s="22"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3714,7 +3735,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3741,7 +3762,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3759,11 +3780,11 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
@@ -3779,11 +3800,11 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
@@ -3799,11 +3820,11 @@
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3856,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -3853,7 +3874,7 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="C36" s="22">
         <v>1</v>
       </c>
@@ -3867,7 +3888,7 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="C37" s="22">
         <v>2</v>
       </c>
@@ -3881,7 +3902,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="C38" s="22">
         <v>3</v>
       </c>
@@ -3895,7 +3916,7 @@
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="C39" s="22">
         <v>4</v>
       </c>
@@ -3909,7 +3930,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="C40" s="22">
         <v>5</v>
       </c>
@@ -3923,7 +3944,7 @@
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="C41" s="23">
         <v>6</v>
       </c>
@@ -3956,7 +3977,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -3974,11 +3995,11 @@
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="12" t="s">
         <v>9</v>
       </c>
@@ -3994,11 +4015,11 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="12" t="s">
         <v>10</v>
       </c>
@@ -4012,11 +4033,11 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="12" t="s">
         <v>11</v>
       </c>
@@ -4045,7 +4066,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -4063,7 +4084,7 @@
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
+      <c r="A56" s="60"/>
       <c r="C56" s="22">
         <v>1</v>
       </c>
@@ -4077,7 +4098,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
+      <c r="A57" s="60"/>
       <c r="C57" s="22">
         <v>2</v>
       </c>
@@ -4091,7 +4112,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="C58" s="22">
         <v>3</v>
       </c>
@@ -4105,7 +4126,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="60"/>
       <c r="C59" s="23">
         <v>4</v>
       </c>
@@ -4138,7 +4159,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -4156,11 +4177,11 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
+      <c r="A65" s="60"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
@@ -4176,11 +4197,11 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
+      <c r="A67" s="60"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="12" t="s">
         <v>10</v>
       </c>
@@ -4194,11 +4215,11 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="59"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4248,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="59" t="s">
+      <c r="A73" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -4245,7 +4266,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
+      <c r="A74" s="60"/>
       <c r="C74" s="22">
         <v>1</v>
       </c>
@@ -4259,7 +4280,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
+      <c r="A75" s="60"/>
       <c r="C75" s="22">
         <v>2</v>
       </c>
@@ -4273,7 +4294,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="59"/>
+      <c r="A76" s="60"/>
       <c r="C76" s="22">
         <v>3</v>
       </c>
@@ -4287,7 +4308,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="59"/>
+      <c r="A77" s="60"/>
       <c r="C77" s="22">
         <v>4</v>
       </c>
@@ -4301,7 +4322,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="60"/>
       <c r="C78" s="23">
         <v>5</v>
       </c>
@@ -4334,7 +4355,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -4352,11 +4373,11 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
+      <c r="A84" s="60"/>
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
@@ -4372,11 +4393,11 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="59"/>
+      <c r="A86" s="60"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="59"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="12" t="s">
         <v>10</v>
       </c>
@@ -4390,11 +4411,11 @@
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="59"/>
+      <c r="A88" s="60"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="59"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -4423,7 +4444,7 @@
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="59" t="s">
+      <c r="A92" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="19" t="s">
@@ -4441,7 +4462,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="59"/>
+      <c r="A93" s="60"/>
       <c r="C93" s="22">
         <v>1</v>
       </c>
@@ -4455,7 +4476,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="59"/>
+      <c r="A94" s="60"/>
       <c r="C94" s="22">
         <v>2</v>
       </c>
@@ -4469,7 +4490,7 @@
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A95" s="59"/>
+      <c r="A95" s="60"/>
       <c r="C95" s="22">
         <v>3</v>
       </c>
@@ -4483,7 +4504,7 @@
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="60"/>
       <c r="C96" s="23">
         <v>4</v>
       </c>
@@ -4516,7 +4537,7 @@
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -4534,11 +4555,11 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="59"/>
+      <c r="A102" s="60"/>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="59"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="12" t="s">
         <v>9</v>
       </c>
@@ -4554,11 +4575,11 @@
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="59"/>
+      <c r="A104" s="60"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="59"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="12" t="s">
         <v>10</v>
       </c>
@@ -4572,11 +4593,11 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="59"/>
+      <c r="A106" s="60"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="59"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
@@ -4605,7 +4626,7 @@
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="19" t="s">
@@ -4623,7 +4644,7 @@
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="59"/>
+      <c r="A111" s="60"/>
       <c r="C111" s="22">
         <v>1</v>
       </c>
@@ -4637,7 +4658,7 @@
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A112" s="59"/>
+      <c r="A112" s="60"/>
       <c r="C112" s="22">
         <v>2</v>
       </c>
@@ -4651,7 +4672,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
+      <c r="A113" s="60"/>
       <c r="C113" s="23">
         <v>3</v>
       </c>
@@ -4684,7 +4705,7 @@
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -4702,11 +4723,11 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="59"/>
+      <c r="A119" s="60"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="59"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="12" t="s">
         <v>9</v>
       </c>
@@ -4722,11 +4743,11 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="59"/>
+      <c r="A121" s="60"/>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="59"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="12" t="s">
         <v>10</v>
       </c>
@@ -4740,11 +4761,11 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="59"/>
+      <c r="A123" s="60"/>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="59"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="12" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4792,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -4789,7 +4810,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="59"/>
+      <c r="A128" s="60"/>
       <c r="C128" s="22">
         <v>1</v>
       </c>
@@ -4803,7 +4824,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A129" s="59"/>
+      <c r="A129" s="60"/>
       <c r="C129" s="22">
         <v>2</v>
       </c>
@@ -4817,7 +4838,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="59"/>
+      <c r="A130" s="60"/>
       <c r="C130" s="23">
         <v>3</v>
       </c>
@@ -4841,13 +4862,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A5:A11"/>
@@ -4856,6 +4870,13 @@
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4867,13 +4888,13 @@
   <dimension ref="A2:B57"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="7"/>
+    <col min="2" max="2" width="15.33203125" style="7" customWidth="1"/>
     <col min="3" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
@@ -4889,72 +4910,66 @@
       <c r="A3" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="36">
-        <v>3</v>
+      <c r="B3" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="36">
-        <v>3</v>
-      </c>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="36">
-        <v>2</v>
+      <c r="B5" s="36" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="36">
-        <v>2</v>
-      </c>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="36">
-        <v>3</v>
-      </c>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="36">
-        <v>1</v>
+      <c r="B8" s="36" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="36">
-        <v>2</v>
+      <c r="B9" s="36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="36">
-        <v>1</v>
+      <c r="B10" s="36" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="36">
-        <v>1</v>
+      <c r="B11" s="36" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/מצגות/L12 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
+++ b/מצגות/L12 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="טבלת דרישות" sheetId="1" r:id="rId1"/>
@@ -1827,9 +1827,6 @@
     <t>פילו טטיאנה (טל)</t>
   </si>
   <si>
-    <t>תצוגת פרטי החיה</t>
-  </si>
-  <si>
     <t>גורובוי אלכסנדר</t>
   </si>
   <si>
@@ -1840,6 +1837,9 @@
   </si>
   <si>
     <t>אלון שי</t>
+  </si>
+  <si>
+    <t>תצוגת פרטי לקוח</t>
   </si>
 </sst>
 </file>
@@ -2368,6 +2368,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2410,34 +2434,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2871,16 +2871,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26">
@@ -2900,10 +2900,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="26">
         <v>1.2</v>
       </c>
@@ -2921,10 +2921,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="26">
         <v>1.3</v>
       </c>
@@ -2942,14 +2942,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="45">
+      <c r="A7" s="48"/>
+      <c r="B7" s="53">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="53" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="27">
@@ -2969,10 +2969,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -2990,14 +2990,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37">
+      <c r="A9" s="48"/>
+      <c r="B9" s="45">
         <v>3</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="45" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="28">
@@ -3017,10 +3017,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="28">
         <v>3.2</v>
       </c>
@@ -3038,10 +3038,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="28">
         <v>3.3</v>
       </c>
@@ -3059,14 +3059,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="47">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55">
         <v>4</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="55" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="5">
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="5">
         <v>4.2</v>
       </c>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="5">
         <v>4.3</v>
       </c>
@@ -3128,11 +3128,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="50">
+      <c r="A15" s="49"/>
+      <c r="B15" s="58">
         <v>5</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -3155,9 +3155,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29">
         <v>5.2</v>
@@ -3176,11 +3176,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="53">
+      <c r="A17" s="49"/>
+      <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3203,9 +3203,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="31"/>
       <c r="E18" s="30">
         <v>6.2</v>
@@ -3224,13 +3224,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="40">
         <v>7</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="40" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="32" t="s">
@@ -3253,9 +3253,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32">
         <v>7.2</v>
@@ -3274,11 +3274,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="56">
+      <c r="A21" s="38"/>
+      <c r="B21" s="42">
         <v>8</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="42" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -3301,9 +3301,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34">
         <v>8.1999999999999993</v>
@@ -3322,9 +3322,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34">
         <v>8.3000000000000007</v>
@@ -3468,13 +3468,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -3490,6 +3483,13 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3522,15 +3522,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
@@ -3547,7 +3547,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3565,11 +3565,11 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="59"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3585,11 +3585,11 @@
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -3603,11 +3603,11 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3657,7 +3657,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="C15" s="22">
         <v>1</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="C16" s="22">
         <v>2</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="C17" s="22">
         <v>3</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="C18" s="22">
         <v>4</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="C19" s="22">
         <v>5</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="C20" s="22"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3735,7 +3735,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="59"/>
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3762,7 +3762,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3780,11 +3780,11 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
@@ -3800,11 +3800,11 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
@@ -3820,11 +3820,11 @@
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -3874,7 +3874,7 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="A36" s="59"/>
       <c r="C36" s="22">
         <v>1</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
+      <c r="A37" s="59"/>
       <c r="C37" s="22">
         <v>2</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="C38" s="22">
         <v>3</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
+      <c r="A39" s="59"/>
       <c r="C39" s="22">
         <v>4</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
+      <c r="A40" s="59"/>
       <c r="C40" s="22">
         <v>5</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="59"/>
       <c r="C41" s="23">
         <v>6</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -3995,11 +3995,11 @@
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
+      <c r="A47" s="59"/>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="12" t="s">
         <v>9</v>
       </c>
@@ -4015,11 +4015,11 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="59"/>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="12" t="s">
         <v>10</v>
       </c>
@@ -4033,11 +4033,11 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
+      <c r="A51" s="59"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="12" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -4084,7 +4084,7 @@
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
+      <c r="A56" s="59"/>
       <c r="C56" s="22">
         <v>1</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
+      <c r="A57" s="59"/>
       <c r="C57" s="22">
         <v>2</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
+      <c r="A58" s="59"/>
       <c r="C58" s="22">
         <v>3</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="59"/>
       <c r="C59" s="23">
         <v>4</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -4177,11 +4177,11 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
+      <c r="A65" s="59"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
@@ -4197,11 +4197,11 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
+      <c r="A67" s="59"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="60"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="12" t="s">
         <v>10</v>
       </c>
@@ -4215,11 +4215,11 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
+      <c r="A69" s="59"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -4266,7 +4266,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
+      <c r="A74" s="59"/>
       <c r="C74" s="22">
         <v>1</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
+      <c r="A75" s="59"/>
       <c r="C75" s="22">
         <v>2</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
+      <c r="A76" s="59"/>
       <c r="C76" s="22">
         <v>3</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
+      <c r="A77" s="59"/>
       <c r="C77" s="22">
         <v>4</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
+      <c r="A78" s="59"/>
       <c r="C78" s="23">
         <v>5</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -4373,11 +4373,11 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
+      <c r="A84" s="59"/>
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
@@ -4393,11 +4393,11 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="60"/>
+      <c r="A86" s="59"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="12" t="s">
         <v>10</v>
       </c>
@@ -4411,11 +4411,11 @@
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
+      <c r="A88" s="59"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="19" t="s">
@@ -4462,7 +4462,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
+      <c r="A93" s="59"/>
       <c r="C93" s="22">
         <v>1</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
+      <c r="A94" s="59"/>
       <c r="C94" s="22">
         <v>2</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
+      <c r="A95" s="59"/>
       <c r="C95" s="22">
         <v>3</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
+      <c r="A96" s="59"/>
       <c r="C96" s="23">
         <v>4</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A101" s="60" t="s">
+      <c r="A101" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -4555,11 +4555,11 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="60"/>
+      <c r="A102" s="59"/>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="60"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="12" t="s">
         <v>9</v>
       </c>
@@ -4575,11 +4575,11 @@
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="60"/>
+      <c r="A104" s="59"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="60"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="12" t="s">
         <v>10</v>
       </c>
@@ -4593,11 +4593,11 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="60"/>
+      <c r="A106" s="59"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="60"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="60" t="s">
+      <c r="A110" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="19" t="s">
@@ -4644,7 +4644,7 @@
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="60"/>
+      <c r="A111" s="59"/>
       <c r="C111" s="22">
         <v>1</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A112" s="60"/>
+      <c r="A112" s="59"/>
       <c r="C112" s="22">
         <v>2</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
+      <c r="A113" s="59"/>
       <c r="C113" s="23">
         <v>3</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A118" s="60" t="s">
+      <c r="A118" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -4723,11 +4723,11 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="60"/>
+      <c r="A119" s="59"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="60"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="12" t="s">
         <v>9</v>
       </c>
@@ -4743,11 +4743,11 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="60"/>
+      <c r="A121" s="59"/>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="60"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="12" t="s">
         <v>10</v>
       </c>
@@ -4761,11 +4761,11 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="60"/>
+      <c r="A123" s="59"/>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="60"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="12" t="s">
         <v>11</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="60" t="s">
+      <c r="A127" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -4810,7 +4810,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="60"/>
+      <c r="A128" s="59"/>
       <c r="C128" s="22">
         <v>1</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A129" s="60"/>
+      <c r="A129" s="59"/>
       <c r="C129" s="22">
         <v>2</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="60"/>
+      <c r="A130" s="59"/>
       <c r="C130" s="23">
         <v>3</v>
       </c>
@@ -4862,6 +4862,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A5:A11"/>
@@ -4870,13 +4877,6 @@
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4887,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4925,7 +4925,7 @@
         <v>156</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>159</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>161</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>162</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
